--- a/medicine/Enfance/Jean-Claude_Mourlevat/Jean-Claude_Mourlevat.xlsx
+++ b/medicine/Enfance/Jean-Claude_Mourlevat/Jean-Claude_Mourlevat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean-Claude Mourlevat est un auteur français né à Ambert (Puy-de-Dôme) le 22 mars 1952. Il est particulièrement connu pour ses romans destinés à la jeunesse, pour lesquels il est multiprimé, notamment par le prix commémoratif Astrid-Lingren.
@@ -512,19 +524,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Claude Mourlevat passe son enfance en Auvergne[1]. En 1962, il devient interne au lycée Blaise Pascal d'Ambert où il reste jusqu'à l'obtention de son baccalauréat[2], il évoque par la suite cette partie de sa vie dans un roman autobiographique Je voudrais rentrer à la maison.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Claude Mourlevat passe son enfance en Auvergne. En 1962, il devient interne au lycée Blaise Pascal d'Ambert où il reste jusqu'à l'obtention de son baccalauréat, il évoque par la suite cette partie de sa vie dans un roman autobiographique Je voudrais rentrer à la maison.
 Il poursuit ses études supérieures à Strasbourg, Toulouse, Bonn et Paris. Il obtient le CAPES d'allemand, langue qu'il enseigne de 1976 à 1985, d'abord au collège climatique de La Bourboule, puis à Hambourg, et enfin au collège de Cany-Barville où il reste 5 ans.
-Il choisit à cette époque de se consacrer au théâtre et   crée alors deux solos clownesques, joue des tours de magie  plus de 600 fois en France et un peu partout dans le monde[2].
+Il choisit à cette époque de se consacrer au théâtre et   crée alors deux solos clownesques, joue des tours de magie  plus de 600 fois en France et un peu partout dans le monde.
 Il passe ensuite à la mise en scène de pièces de Brecht, Cocteau ou Shakespeare, avant de se consacrer à l’écriture.
 En 1997, il publie son premier roman Histoire de "l'enfant et de l'œuf".
-Il est l'auteur entre autres de La Rivière à l'envers (2 tomes), L'Enfant Océan, La Balafre, Le Combat d'Hiver, Le Chagrin du roi mort[3], romans dont plusieurs sont couronnés de prix littéraires[4] décernés par des jurys de jeunes lecteurs ou d'adultes, tels que le prix des Incorruptibles ou le prix Sorcières, qu'il a obtenus plusieurs fois. Jean-Claude Mourlevat est aujourd'hui un auteur traduit dans une vingtaine de langues, et les deux tomes de La rivière à l'envers et L'homme qui ne possédait rien sont tous les deux traduits en braille[5].
-Son roman Terrienne[6] a obtenu en 2011 le prix Utopiales européen jeunesse[7], en 2013 le prix Farniente[8] et le prix Ados Rennes/Ille-et-Vilaine, ainsi qu'une quinzaine d'autres récompenses.
-En 2013, il est ambassadeur des Pépites 2013[9] lors du Salon du livre et de la presse jeunesse de Montreuil (Seine-Saint-Denis), avec Catherine Meurisse comme ambassadrice.
-En 2020, il est sélectionné pour la dixième année d'affilée (depuis 2011) pour le prestigieux prix international suédois considéré comme le prix Nobel de la littérature jeunesse[10], le prix commémoratif Astrid-Lindgren[11], dont il est lauréat en 2021 et le premier Français à le remporter[12].
-De notoriété internationale, Jean-Claude Mourlevat a effectué une tournée à Seattle en 2019 et a participé au premier salon littérature jeunesse du Nord-Ouest américain, Litt. Jeunesse[13],[14], organisé à Seattle par l’association Made in France en 2021.
-En 2018 il publie le roman jeunesse Jefferson[3], du nom du hérisson qui poursuit des enquêtes. L'ouvrage est récompensé de plusieurs prix, dont le Prix des libraires du Québec 2019[15] catégorie Jeunesse, et le Prix Bernard Versele 2020[16]. Le roman est suivi en 2022 par Jefferson fait de son mieux, puis en 2023 par Jefferson se fâche[17].
+Il est l'auteur entre autres de La Rivière à l'envers (2 tomes), L'Enfant Océan, La Balafre, Le Combat d'Hiver, Le Chagrin du roi mort, romans dont plusieurs sont couronnés de prix littéraires décernés par des jurys de jeunes lecteurs ou d'adultes, tels que le prix des Incorruptibles ou le prix Sorcières, qu'il a obtenus plusieurs fois. Jean-Claude Mourlevat est aujourd'hui un auteur traduit dans une vingtaine de langues, et les deux tomes de La rivière à l'envers et L'homme qui ne possédait rien sont tous les deux traduits en braille.
+Son roman Terrienne a obtenu en 2011 le prix Utopiales européen jeunesse, en 2013 le prix Farniente et le prix Ados Rennes/Ille-et-Vilaine, ainsi qu'une quinzaine d'autres récompenses.
+En 2013, il est ambassadeur des Pépites 2013 lors du Salon du livre et de la presse jeunesse de Montreuil (Seine-Saint-Denis), avec Catherine Meurisse comme ambassadrice.
+En 2020, il est sélectionné pour la dixième année d'affilée (depuis 2011) pour le prestigieux prix international suédois considéré comme le prix Nobel de la littérature jeunesse, le prix commémoratif Astrid-Lindgren, dont il est lauréat en 2021 et le premier Français à le remporter.
+De notoriété internationale, Jean-Claude Mourlevat a effectué une tournée à Seattle en 2019 et a participé au premier salon littérature jeunesse du Nord-Ouest américain, Litt. Jeunesse organisé à Seattle par l’association Made in France en 2021.
+En 2018 il publie le roman jeunesse Jefferson, du nom du hérisson qui poursuit des enquêtes. L'ouvrage est récompensé de plusieurs prix, dont le Prix des libraires du Québec 2019 catégorie Jeunesse, et le Prix Bernard Versele 2020. Le roman est suivi en 2022 par Jefferson fait de son mieux, puis en 2023 par Jefferson se fâche.
 </t>
         </is>
       </c>
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jeunesse
-Histoire de l'enfant et de l’œuf, 1997
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Histoire de l'enfant et de l’œuf, 1997
 A comme voleur, 1998
 Le Jeune Loup qui n'avait pas de nom, 1998
 Kolos et les Quatre voleurs, 1998
@@ -578,19 +597,15 @@
 Sous le grand banian, 2005
 Le Combat d'hiver, 2006
 La Prodigieuse Aventure de Tillmann Ostergrimm, 2007
-Le Chagrin du roi mort[3], 2009
-Terrienne[6], 2011
-Silhouette[18], 2013
+Le Chagrin du roi mort, 2009
+Terrienne, 2011
+Silhouette, 2013
 Sophie Scholl : Non à la lâcheté, Actes Sud Junior, 2013 [présentation en ligne]
 série Jefferson, Gallimard Jeunesse
-Jefferson[19], 2018
+Jefferson, 2018
  Jefferson fait de son mieux,  2022
-Jefferson se fâche[17], 2023
-La Chambre de Jo, Gallimard Jeunesse, 2020
-Adultes
-Et je danse, aussi avec Anne-Laure Bondoux, Fleuve Editions, 2015
-Mes amis devenus, Fleuve Editions, 2017
-Et je danse, aussi, vol.2 : Oh Happy day avec Anne-Laure Bondoux, Fleuve Editions, 2020</t>
+Jefferson se fâche, 2023
+La Chambre de Jo, Gallimard Jeunesse, 2020</t>
         </is>
       </c>
     </row>
@@ -615,35 +630,109 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Adultes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Et je danse, aussi avec Anne-Laure Bondoux, Fleuve Editions, 2015
+Mes amis devenus, Fleuve Editions, 2017
+Et je danse, aussi, vol.2 : Oh Happy day avec Anne-Laure Bondoux, Fleuve Editions, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Mourlevat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Mourlevat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean-Claude Mourlevat a obtenu de nombreux prix littéraires[4], et parmi eux :
-(international) « Honour List » 2000[20] de l' IBBY pour L'Enfant océan
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean-Claude Mourlevat a obtenu de nombreux prix littéraires, et parmi eux :
+(international) « Honour List » 2000 de l' IBBY pour L'Enfant océan
 Prix Sorcières 2000, pour L'Enfant océan
-Prix des incorruptibles 2000[21], pour Le Jeune Loup qui n'avait pas de nom, coécrit avec Jean-Luc Bénazet
-Prix des incorruptibles 2002[21], pour La Rivière à l'envers
+Prix des incorruptibles 2000, pour Le Jeune Loup qui n'avait pas de nom, coécrit avec Jean-Luc Bénazet
+Prix des incorruptibles 2002, pour La Rivière à l'envers
  Prix Bernard Versele 2005, pour La Ballade de Cornebique
  Prix Bernard Versele 2006, pour La Troisième vengeance de Robert Poutifard
 Prix Jeunesse France Télévisions 2006, pour Le combat d'hiver
 Prix Sorcières 2008, pour Le Combat d'hiver
 Prix Ado-Lisant 2008, pour Le Combat d'hiver
-Prix des incorruptibles 2008[21], pour Le Combat d'hiver
-Prix Utopiales Européen Jeunesse 2011 pour Terrienne[7]
+Prix des incorruptibles 2008, pour Le Combat d'hiver
+Prix Utopiales Européen Jeunesse 2011 pour Terrienne
 Prix Lecture Lycée Talence 2012 pour Terrienne
-Prix Farniente 2013, pour Terrienne[8]
+Prix Farniente 2013, pour Terrienne
 Prix Ado-Lisant 2013, pour Terrienne
-Prix Historia du livre jeunesse 2013, pour Sophie Scholl : Non à la lâcheté[22]
- Prix des libraires du Québec 2019[15] catégorie Jeunesse pour Jefferson
-(international) « Honour List » 2020[23] de l' IBBY pour Jefferson
- Sélections de 2011 à 2020 pour le prix commémoratif Astrid-Lindgren[11]
+Prix Historia du livre jeunesse 2013, pour Sophie Scholl : Non à la lâcheté
+ Prix des libraires du Québec 2019 catégorie Jeunesse pour Jefferson
+(international) « Honour List » 2020 de l' IBBY pour Jefferson
+ Sélections de 2011 à 2020 pour le prix commémoratif Astrid-Lindgren
 Prix des Incorruptibles 2020 pour Jefferson
- Prix Bernard Versele 2020[16] pour Jefferson
- Lauréat du prix commémoratif Astrid-Lindgren en 2021[24],[25].
-Décorations
- Officier de l'ordre des Arts et des Lettres (2022)[26].</t>
+ Prix Bernard Versele 2020 pour Jefferson
+ Lauréat du prix commémoratif Astrid-Lindgren en 2021,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Mourlevat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Mourlevat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre des Arts et des Lettres (2022).</t>
         </is>
       </c>
     </row>
